--- a/templates/export/route.xlsx
+++ b/templates/export/route.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C93EF8F7-260A-448C-A1D1-8D0D0B542A05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="989"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="989" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="template" sheetId="1" r:id="rId1"/>
@@ -19,12 +20,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>Автор</author>
+    <author>Autor</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -34,11 +35,11 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>jx:area(lastCell="H9")</t>
+          <t>jx:area(lastCell="I15")</t>
         </r>
       </text>
     </comment>
-    <comment ref="A2" authorId="0" shapeId="0">
+    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -48,11 +49,11 @@
             <family val="2"/>
             <charset val="204"/>
           </rPr>
-          <t>jx:each(items="devices", var="device", lastCell="H9" multisheet="sheetNames")</t>
+          <t>jx:each(items="devices", var="device", lastCell="I15" multisheet="sheetNames")</t>
         </r>
       </text>
     </comment>
-    <comment ref="A9" authorId="0" shapeId="0">
+    <comment ref="B15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -62,7 +63,7 @@
             <family val="2"/>
             <charset val="204"/>
           </rPr>
-          <t>jx:each(items="device.objects", var="position", lastCell="H9")</t>
+          <t>jx:each(items="device.objects", var="position", lastCell="I15")</t>
         </r>
       </text>
     </comment>
@@ -71,59 +72,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
-  <si>
-    <t>Report type:</t>
-  </si>
-  <si>
-    <t>Route</t>
-  </si>
-  <si>
-    <t>Device:</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>${device.deviceName}</t>
   </si>
   <si>
-    <t>Group:</t>
-  </si>
-  <si>
     <t>${device.groupName}</t>
   </si>
   <si>
-    <t>Period:</t>
-  </si>
-  <si>
-    <t>Valid</t>
-  </si>
-  <si>
-    <t>Time</t>
-  </si>
-  <si>
-    <t>Latitude</t>
-  </si>
-  <si>
-    <t>Longitude</t>
-  </si>
-  <si>
-    <t>Altitude</t>
-  </si>
-  <si>
-    <t>Speed</t>
-  </si>
-  <si>
-    <t>Address</t>
-  </si>
-  <si>
-    <t>Attributes</t>
-  </si>
-  <si>
-    <t>${position.valid}</t>
-  </si>
-  <si>
-    <t>${position.latitude}</t>
-  </si>
-  <si>
     <t>${position.longitude}</t>
   </si>
   <si>
@@ -143,18 +99,97 @@
   </si>
   <si>
     <t>${dateTool.format("YYYY-MM-dd HH:mm:ss", position.fixTime, locale, timezone)}</t>
+  </si>
+  <si>
+    <t>Periodo de tiempo:</t>
+  </si>
+  <si>
+    <t>Grupo:</t>
+  </si>
+  <si>
+    <t>Dispositivo:</t>
+  </si>
+  <si>
+    <t>Valido</t>
+  </si>
+  <si>
+    <t>Fecha y hora</t>
+  </si>
+  <si>
+    <t>Latitud</t>
+  </si>
+  <si>
+    <t>Longitud</t>
+  </si>
+  <si>
+    <t>Altitud</t>
+  </si>
+  <si>
+    <t>Velocidad</t>
+  </si>
+  <si>
+    <t>Dirección</t>
+  </si>
+  <si>
+    <t>Atributos</t>
+  </si>
+  <si>
+    <t>Ruta</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="61"/>
+        <color rgb="FF324BAE"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>φ</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color rgb="FF324BAE"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>HI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF324BAE"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Project</t>
+    </r>
+  </si>
+  <si>
+    <t>${position.protocol}</t>
+  </si>
+  <si>
+    <t>${position.phone}</t>
+  </si>
+  <si>
+    <t>${device.devicePhone}</t>
+  </si>
+  <si>
+    <t>${device.phone}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy\ hh:mm:ss"/>
     <numFmt numFmtId="165" formatCode="0.000000"/>
     <numFmt numFmtId="166" formatCode="0&quot; m&quot;"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -241,6 +276,40 @@
       <name val="Tahoma"/>
       <family val="2"/>
       <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF324BAE"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FF324BAE"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="24"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="61"/>
+      <color rgb="FF324BAE"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color rgb="FF324BAE"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -285,7 +354,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -293,14 +362,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="15"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -340,10 +405,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Пояснение" xfId="1" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Texto explicativo" xfId="1" builtinId="53" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -430,20 +505,26 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>4019040</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>151920</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1392045</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>140490</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvPr id="2" name="CustomShape 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -481,20 +562,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>4019040</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>151920</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1392045</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>140490</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvPr id="3" name="CustomShape 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -532,20 +619,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>4019040</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>151920</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1392045</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>140490</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvPr id="4" name="CustomShape 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -583,20 +676,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>4019550</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1030" name="shapetype_202" hidden="1"/>
+        <xdr:cNvPr id="1030" name="shapetype_202" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noSelect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -626,20 +725,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>4019550</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1028" name="shapetype_202" hidden="1"/>
+        <xdr:cNvPr id="1028" name="shapetype_202" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noSelect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -669,20 +774,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>4019550</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1026" name="shapetype_202" hidden="1"/>
+        <xdr:cNvPr id="1026" name="shapetype_202" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noSelect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -975,161 +1086,151 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B1:I15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.7109375"/>
-    <col min="2" max="2" width="20.7109375"/>
-    <col min="3" max="4" width="13"/>
-    <col min="5" max="5" width="10.7109375"/>
-    <col min="6" max="6" width="11.42578125"/>
-    <col min="7" max="7" width="61.85546875"/>
-    <col min="8" max="8" width="73.28515625"/>
-    <col min="9" max="1025" width="8.7109375"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="20.6640625"/>
+    <col min="4" max="5" width="13"/>
+    <col min="6" max="6" width="36.77734375" customWidth="1"/>
+    <col min="7" max="7" width="23.77734375" customWidth="1"/>
+    <col min="8" max="8" width="36.77734375" customWidth="1"/>
+    <col min="9" max="9" width="73.33203125"/>
+    <col min="10" max="1026" width="8.6640625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="1"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="4"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="1" spans="2:9" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="1"/>
+    </row>
+    <row r="2" spans="2:9" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="1"/>
+    </row>
+    <row r="3" spans="2:9" ht="76.2" x14ac:dyDescent="1.2">
+      <c r="G3" s="18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="D4" s="2"/>
+    </row>
+    <row r="6" spans="2:9" ht="31.2" x14ac:dyDescent="0.6">
+      <c r="G6" s="19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B7" s="1"/>
+      <c r="D7" s="2"/>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="F8" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="H8" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="I8" s="5"/>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="F9" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="G9" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="H9" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="4"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="4"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="I9" s="5"/>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="F10" s="20"/>
+      <c r="G10" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="H10" s="20"/>
+      <c r="I10" s="5"/>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="G11" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="I11" s="5"/>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B12" s="1"/>
+      <c r="D12" s="4"/>
+      <c r="G12" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="I12" s="5"/>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B13" s="6"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="3"/>
+    </row>
+    <row r="14" spans="2:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I14" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" s="17" customFormat="1" ht="73.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="F15" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="4"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="G15" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="H15" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="I15" s="16" t="s">
         <v>5</v>
-      </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="4"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="4"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="8"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="4"/>
-    </row>
-    <row r="8" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="H8" s="11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="H9" s="18" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
